--- a/STOCK UTN/2023/08 AGUSTUS/21 AGUSTUS - 26 AGUSTUS 2023.xlsx
+++ b/STOCK UTN/2023/08 AGUSTUS/21 AGUSTUS - 26 AGUSTUS 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -11758,8 +11758,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A85" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -13469,7 +13469,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2292"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2228" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2243" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -13743,7 +13743,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 21 AGUSTUS - 26 AGUSTUS 2023</v>
+        <v>TANGGAL : LOG_AGUSTUS_3.XLSX</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
